--- a/posesiones/1381304.xlsx
+++ b/posesiones/1381304.xlsx
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>22</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>19</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>24</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>24</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>23</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>20</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>25</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>16</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>18</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>15</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>6</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>12</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>5</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>11</v>
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>25</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>7</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>22</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>4</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R50">
         <v>20</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R52">
         <v>17</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>22</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>21</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>11</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>6</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>8</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5854,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>13</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>6</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>8</v>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>23</v>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R92">
         <v>21</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>24</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>21</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>15</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R106">
         <v>5</v>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R107">
         <v>1</v>
@@ -7145,10 +7145,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7189,10 +7189,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7242,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R110">
         <v>14</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R115">
         <v>30</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R118">
         <v>18</v>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R122">
         <v>10</v>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R123">
         <v>12</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R125">
         <v>22</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R126">
         <v>21</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R128">
         <v>15</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R130">
         <v>17</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R132">
         <v>4</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R141">
         <v>16</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8965,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>27</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9162,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>18</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>7</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R155">
         <v>25</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R158">
         <v>20</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>35</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10373,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>12</v>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10476,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R176">
         <v>25</v>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10914,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R185">
         <v>24</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11346,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11440,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>44</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R198">
         <v>18</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11690,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R203">
         <v>15</v>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R204">
         <v>22</v>
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R205">
         <v>19</v>
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R207">
         <v>15</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R209">
         <v>4</v>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R213">
         <v>26</v>
@@ -12346,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12775,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R223">
         <v>28</v>
@@ -12828,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12878,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>14</v>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R226">
         <v>0</v>
@@ -12978,10 +12978,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13398,10 +13398,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>7</v>
@@ -13598,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R240">
         <v>19</v>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R244">
         <v>25</v>
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14127,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>2</v>
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R252">
         <v>12</v>
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14274,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R257">
         <v>27</v>
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R259">
         <v>25</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14618,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R261">
         <v>16</v>
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14718,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R263">
         <v>13</v>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R265">
         <v>16</v>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R267">
         <v>7</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R271">
         <v>25</v>
@@ -15174,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R272">
         <v>10</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15271,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>21</v>
@@ -15750,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R284">
         <v>14</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16141,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R292">
         <v>20</v>
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16238,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16285,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16429,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R298">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R304">
         <v>7</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16867,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R307">
         <v>26</v>
@@ -16920,7 +16920,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R308">
         <v>12</v>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17020,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R310">
         <v>25</v>
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R312">
         <v>21</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17220,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R320">
         <v>21</v>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17608,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R322">
         <v>12</v>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17705,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17799,7 +17799,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R326">
         <v>33</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R328">
         <v>7</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R329">
         <v>15</v>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18196,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R334">
         <v>14</v>
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18296,7 +18296,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R336">
         <v>26</v>
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18399,7 +18399,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R338">
         <v>6</v>
@@ -18449,7 +18449,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>23</v>
@@ -18549,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18928,7 +18928,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>12</v>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19266,7 +19266,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R356">
         <v>18</v>
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R357">
         <v>13</v>
@@ -19369,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19416,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19463,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19560,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>1</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19710,7 +19710,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R365">
         <v>17</v>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19813,7 +19813,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R367">
         <v>14</v>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19913,7 +19913,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R369">
         <v>6</v>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20004,10 +20004,10 @@
         <v>1</v>
       </c>
       <c r="P371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20195,7 +20195,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20330,10 +20330,10 @@
         <v>1</v>
       </c>
       <c r="P378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R379">
         <v>7</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20577,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20624,7 +20624,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20671,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20818,7 +20818,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R388">
         <v>30</v>
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20915,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21056,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R394">
         <v>12</v>
@@ -21159,7 +21159,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R395">
         <v>21</v>
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21406,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R400">
         <v>44</v>
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21506,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21694,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21741,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21791,7 +21791,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R408">
         <v>5</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21894,7 +21894,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R410">
         <v>17</v>
@@ -21944,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22176,7 +22176,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22317,7 +22317,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22364,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22414,7 +22414,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R421">
         <v>27</v>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22517,7 +22517,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R423">
         <v>15</v>
@@ -22570,7 +22570,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R424">
         <v>8</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22767,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R428">
         <v>27</v>
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22870,7 +22870,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R430">
         <v>5</v>
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22970,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R432">
         <v>27</v>
@@ -23017,7 +23017,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23064,7 +23064,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23117,7 +23117,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R435">
         <v>2</v>
@@ -23170,7 +23170,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R436">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R438">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R439">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23517,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23567,7 +23567,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R444">
         <v>3</v>
@@ -23617,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23667,7 +23667,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R446">
         <v>4</v>
@@ -23717,7 +23717,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23764,7 +23764,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23955,7 +23955,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R452">
         <v>29</v>
@@ -24008,7 +24008,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R453">
         <v>27</v>
@@ -24061,7 +24061,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24111,7 +24111,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R455">
         <v>6</v>
@@ -24161,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24211,7 +24211,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R457">
         <v>5</v>
@@ -24261,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24311,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R459">
         <v>18</v>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24411,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R461">
         <v>20</v>
@@ -24464,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24514,7 +24514,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R463">
         <v>11</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24614,7 +24614,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R465">
         <v>17</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24714,7 +24714,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R467">
         <v>5</v>
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24902,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24952,7 +24952,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R472">
         <v>24</v>
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25052,7 +25052,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R474">
         <v>10</v>
@@ -25102,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25152,7 +25152,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R476">
         <v>3</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25249,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25343,7 +25343,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25440,7 +25440,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25490,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R483">
         <v>25</v>
@@ -25543,7 +25543,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25593,7 +25593,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R485">
         <v>16</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25740,7 +25740,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25787,7 +25787,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25887,7 +25887,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R491">
         <v>9</v>
@@ -25937,7 +25937,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25984,7 +25984,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26128,7 +26128,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R496">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26231,7 +26231,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R498">
         <v>18</v>
@@ -26284,7 +26284,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26331,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26431,7 +26431,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R502">
         <v>20</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26534,7 +26534,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R504">
         <v>20</v>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26631,7 +26631,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26772,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26819,7 +26819,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26866,7 +26866,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26913,7 +26913,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26963,7 +26963,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R513">
         <v>4</v>
@@ -27016,7 +27016,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R514">
         <v>18</v>
@@ -27069,7 +27069,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R515">
         <v>6</v>
@@ -27119,7 +27119,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27213,7 +27213,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27263,7 +27263,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R519">
         <v>0</v>
@@ -27316,7 +27316,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R520">
         <v>23</v>
@@ -27369,7 +27369,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27419,7 +27419,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R522">
         <v>5</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27510,10 +27510,10 @@
         <v>1</v>
       </c>
       <c r="P524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q524">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
